--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.18.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="126">
   <si>
     <t>Sentence</t>
   </si>
@@ -67,12 +67,12 @@
     <t>כן, יואב.</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>כן.</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>הוא הגיע אתך.</t>
   </si>
   <si>
@@ -112,6 +112,9 @@
     <t>אם זה לא לאחרונה?</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t>כן זה משהו שהוא במשך כמה חודשים,</t>
   </si>
   <si>
@@ -211,9 +214,6 @@
     <t>אני פשוט, אני לא אני בהלם כי.</t>
   </si>
   <si>
-    <t>concern</t>
-  </si>
-  <si>
     <t xml:space="preserve">כי זה לא נראה לך, זה לא נשמע לך, </t>
   </si>
   <si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>לא.</t>
-  </si>
-  <si>
-    <t>disagree</t>
   </si>
   <si>
     <t xml:space="preserve">לא, לא, לא זה שום דבר שקשור אליכם </t>
@@ -810,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -838,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -846,10 +843,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -902,10 +899,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -992,7 +989,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1000,10 +997,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1028,10 +1025,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1042,7 +1039,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1056,7 +1053,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1070,7 +1067,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1084,7 +1081,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1098,7 +1095,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1112,7 +1109,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1126,13 +1123,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1140,7 +1137,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1154,7 +1151,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1168,10 +1165,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1182,10 +1179,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1196,10 +1193,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1210,13 +1207,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1224,7 +1221,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -1238,10 +1235,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1252,13 +1249,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1266,13 +1263,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1280,7 +1277,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -1294,7 +1291,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -1308,7 +1305,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
@@ -1322,7 +1319,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -1336,13 +1333,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1350,7 +1347,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -1364,7 +1361,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -1378,10 +1375,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1392,7 +1389,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -1406,10 +1403,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1420,7 +1417,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -1434,10 +1431,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1448,13 +1445,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1521,7 +1518,7 @@
         <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1566,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1608,7 +1605,7 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -1619,7 +1616,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1636,7 +1633,7 @@
         <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1644,13 +1641,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1658,13 +1655,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1672,13 +1669,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1686,10 +1683,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
         <v>20</v>
@@ -1700,7 +1697,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
@@ -1714,10 +1711,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
         <v>86</v>
-      </c>
-      <c r="B71" t="s">
-        <v>87</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -1728,7 +1725,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -1756,7 +1753,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -1770,13 +1767,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
         <v>17</v>
       </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1784,7 +1781,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -1798,10 +1795,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -1812,10 +1809,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -1826,10 +1823,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
         <v>94</v>
-      </c>
-      <c r="B79" t="s">
-        <v>95</v>
       </c>
       <c r="C79" t="s">
         <v>20</v>
@@ -1840,10 +1837,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -1854,7 +1851,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
         <v>70</v>
@@ -1868,13 +1865,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1882,7 +1879,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
         <v>70</v>
@@ -1896,13 +1893,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1910,10 +1907,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -1924,7 +1921,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -1938,10 +1935,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
@@ -1952,13 +1949,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -1980,7 +1977,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -1994,7 +1991,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -2008,10 +2005,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2022,10 +2019,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -2036,10 +2033,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2050,13 +2047,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2064,7 +2061,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
         <v>70</v>
@@ -2078,10 +2075,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2092,7 +2089,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -2106,10 +2103,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" t="s">
         <v>114</v>
-      </c>
-      <c r="B99" t="s">
-        <v>115</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2120,10 +2117,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C100" t="s">
         <v>20</v>
@@ -2134,10 +2131,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -2148,7 +2145,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
@@ -2162,13 +2159,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2176,13 +2173,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2190,10 +2187,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2204,13 +2201,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" t="s">
         <v>122</v>
       </c>
-      <c r="B106" t="s">
-        <v>123</v>
-      </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -2218,10 +2215,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C107" t="s">
         <v>20</v>
@@ -2232,7 +2229,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -2246,13 +2243,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2260,7 +2257,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
